--- a/labels_histogram.xlsx
+++ b/labels_histogram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishna/Documents/Project/emotion/wild/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhakrishna/Documents/Project/Group-Emotion-Recognition-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920EFDC-7407-BD45-A51D-6B8B54E9707A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB5AE1A-1370-6C4B-89B4-A2E591736AD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3311,13 +3312,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D811"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
